--- a/거래명세서 양식(예제).xlsx
+++ b/거래명세서 양식(예제).xlsx
@@ -993,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +1033,264 @@
     <xf numFmtId="179" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,57 +1300,6 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1168,24 +1375,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,19 +1426,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,203 +1486,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1811,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13:AD13"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1830,36 +1839,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="1"/>
@@ -1868,389 +1877,389 @@
       <c r="AF1" s="3"/>
     </row>
     <row r="2" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="138" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="139"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="62"/>
     </row>
     <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="156" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="93" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="52" t="s">
+      <c r="P3" s="153"/>
+      <c r="Q3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="136">
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="28">
         <v>1</v>
       </c>
-      <c r="V3" s="136">
+      <c r="V3" s="28">
         <v>1</v>
       </c>
-      <c r="W3" s="136">
+      <c r="W3" s="28">
         <v>1</v>
       </c>
-      <c r="X3" s="142" t="s">
+      <c r="X3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="136">
+      <c r="Y3" s="28">
         <v>1</v>
       </c>
-      <c r="Z3" s="136">
+      <c r="Z3" s="28">
         <v>1</v>
       </c>
-      <c r="AA3" s="142" t="s">
+      <c r="AA3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="136">
+      <c r="AB3" s="28">
         <v>1</v>
       </c>
-      <c r="AC3" s="136">
+      <c r="AC3" s="28">
         <v>1</v>
       </c>
-      <c r="AD3" s="136">
+      <c r="AD3" s="28">
         <v>1</v>
       </c>
-      <c r="AE3" s="136">
+      <c r="AE3" s="28">
         <v>1</v>
       </c>
-      <c r="AF3" s="140">
+      <c r="AF3" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="141"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="64"/>
     </row>
     <row r="5" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="61" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="61" t="s">
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="55" t="s">
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="97" t="s">
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="99" t="s">
+      <c r="AC5" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="101"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="159"/>
+      <c r="AF5" s="160"/>
     </row>
     <row r="6" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="49" t="s">
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="104"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="157"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="163"/>
     </row>
     <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="64" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="61" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="62"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="64" t="s">
+      <c r="S7" s="66"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="66"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="129"/>
     </row>
     <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="49" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="69"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="132"/>
     </row>
     <row r="9" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="73">
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="136">
         <f>SUM(Z12:AD35)</f>
         <v>30000</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="61" t="s">
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="81" t="s">
+      <c r="S9" s="66"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="159" t="s">
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="81" t="s">
+      <c r="AB9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="161"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="36"/>
     </row>
     <row r="10" spans="1:32" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="162"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2259,1102 +2268,1263 @@
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="144" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="144" t="s">
+      <c r="O11" s="45"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="145"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="144" t="s">
+      <c r="R11" s="45"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="144" t="s">
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="145"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="144" t="s">
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="163"/>
-    </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="41"/>
+    </row>
+    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>25</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="147" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="148"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="167">
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="47">
         <v>1</v>
       </c>
-      <c r="R12" s="168"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="164">
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="42">
         <v>10000</v>
       </c>
-      <c r="U12" s="165"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="164">
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="171">
         <f>(Q12*T12)</f>
         <v>10000</v>
       </c>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="147"/>
-      <c r="AF12" s="170"/>
-    </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="54"/>
+    </row>
+    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="10">
         <v>26</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="26" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="23">
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16">
         <v>2</v>
       </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="29">
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19">
         <v>10000</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="164">
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="19">
         <f t="shared" ref="Z13:Z35" si="0">(Q13*T13)</f>
         <v>20000</v>
       </c>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="165"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="32"/>
-    </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="53"/>
+    </row>
+    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="164">
-        <f t="shared" si="0"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="19">
+        <f t="shared" ref="Z14:Z35" si="1">(Q14*T14)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="32"/>
-    </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="53"/>
+    </row>
+    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="164">
-        <f t="shared" si="0"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="165"/>
-      <c r="AB15" s="165"/>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="32"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="53"/>
+    </row>
+    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="164">
-        <f t="shared" si="0"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="32"/>
-    </row>
-    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="53"/>
+    </row>
+    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="164">
-        <f t="shared" si="0"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="32"/>
-    </row>
-    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="53"/>
+    </row>
+    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="164">
-        <f t="shared" si="0"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="32"/>
-    </row>
-    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="53"/>
+    </row>
+    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="164">
-        <f t="shared" si="0"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="165"/>
-      <c r="AB19" s="165"/>
-      <c r="AC19" s="165"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="32"/>
-    </row>
-    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="53"/>
+    </row>
+    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="164">
-        <f t="shared" si="0"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="32"/>
-    </row>
-    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="53"/>
+    </row>
+    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="164">
-        <f t="shared" si="0"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="32"/>
-    </row>
-    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="53"/>
+    </row>
+    <row r="22" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="164">
-        <f t="shared" si="0"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="32"/>
-    </row>
-    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="53"/>
+    </row>
+    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="164">
-        <f t="shared" si="0"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="32"/>
-    </row>
-    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="53"/>
+    </row>
+    <row r="24" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="164">
-        <f t="shared" si="0"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="32"/>
-    </row>
-    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="53"/>
+    </row>
+    <row r="25" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="164">
-        <f t="shared" si="0"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="32"/>
-    </row>
-    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="53"/>
+    </row>
+    <row r="26" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="164">
-        <f t="shared" si="0"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="32"/>
-    </row>
-    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="53"/>
+    </row>
+    <row r="27" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="164">
-        <f t="shared" si="0"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="165"/>
-      <c r="AB27" s="165"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="32"/>
-    </row>
-    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="53"/>
+    </row>
+    <row r="28" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="164">
-        <f t="shared" si="0"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="32"/>
-    </row>
-    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="53"/>
+    </row>
+    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="164">
-        <f t="shared" si="0"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="165"/>
-      <c r="AB29" s="165"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="32"/>
-    </row>
-    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="53"/>
+    </row>
+    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="164">
-        <f t="shared" si="0"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="165"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="32"/>
-    </row>
-    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="53"/>
+    </row>
+    <row r="31" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="164">
-        <f t="shared" si="0"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="165"/>
-      <c r="AB31" s="165"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="32"/>
-    </row>
-    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="53"/>
+    </row>
+    <row r="32" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="164">
-        <f t="shared" si="0"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="165"/>
-      <c r="AB32" s="165"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="32"/>
-    </row>
-    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="53"/>
+    </row>
+    <row r="33" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="164">
-        <f t="shared" si="0"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="165"/>
-      <c r="AB33" s="165"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="32"/>
-    </row>
-    <row r="34" spans="1:32" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="53"/>
+    </row>
+    <row r="34" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="164">
-        <f t="shared" si="0"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="165"/>
-      <c r="AB34" s="165"/>
-      <c r="AC34" s="165"/>
-      <c r="AD34" s="166"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="32"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="53"/>
     </row>
     <row r="35" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="164">
-        <f t="shared" si="0"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="165"/>
-      <c r="AB35" s="165"/>
-      <c r="AC35" s="165"/>
-      <c r="AD35" s="166"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="32"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="53"/>
     </row>
     <row r="36" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="13">
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="166"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="168"/>
+      <c r="R36" s="169"/>
+      <c r="S36" s="170"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="100"/>
+      <c r="W36" s="100"/>
+      <c r="X36" s="100"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="99">
         <f>SUM(Z12:AD35)</f>
         <v>30000</v>
       </c>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="17"/>
+      <c r="AA36" s="100"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="164"/>
+      <c r="AF36" s="165"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="109" t="s">
+      <c r="B37" s="69"/>
+      <c r="C37" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="115" t="s">
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="117" t="s">
+      <c r="I37" s="69"/>
+      <c r="J37" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="115" t="s">
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="106"/>
-      <c r="P37" s="129" t="s">
+      <c r="O37" s="69"/>
+      <c r="P37" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="129" t="s">
+      <c r="Q37" s="93"/>
+      <c r="R37" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="S37" s="130"/>
-      <c r="T37" s="123" t="s">
+      <c r="S37" s="93"/>
+      <c r="T37" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="U37" s="124"/>
-      <c r="V37" s="115" t="s">
+      <c r="U37" s="87"/>
+      <c r="V37" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="W37" s="127"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="150">
+      <c r="W37" s="90"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="55">
         <f>SUM(Z12:AD35)</f>
         <v>30000</v>
       </c>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
-      <c r="AC37" s="151"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="152"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="57"/>
     </row>
     <row r="38" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="132"/>
-      <c r="T38" s="125"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="154"/>
-      <c r="AA38" s="154"/>
-      <c r="AB38" s="154"/>
-      <c r="AC38" s="154"/>
-      <c r="AD38" s="154"/>
-      <c r="AE38" s="154"/>
-      <c r="AF38" s="155"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:Z2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U5:AA6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="U7:AF8"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:P10"/>
+    <mergeCell ref="E7:P8"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="U9:Z10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="E5:P6"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AF6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:M38"/>
+    <mergeCell ref="T37:U38"/>
+    <mergeCell ref="V37:X38"/>
+    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="P37:Q38"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="N37:O38"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="Y37:AF38"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="Z24:AD24"/>
     <mergeCell ref="E3:N4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AA3:AA4"/>
@@ -3379,178 +3549,17 @@
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="Y37:AF38"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:M38"/>
-    <mergeCell ref="T37:U38"/>
-    <mergeCell ref="V37:X38"/>
-    <mergeCell ref="R37:S38"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="P37:Q38"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:Z2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U5:AA6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="U7:AF8"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:P10"/>
-    <mergeCell ref="E7:P8"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R9:T10"/>
-    <mergeCell ref="U9:Z10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="E5:P6"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AF6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="Q17:S17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.59055118110236227" header="0.43307086614173229" footer="0.19685039370078741"/>
